--- a/data/outputs/OR_elsevier/44.xlsx
+++ b/data/outputs/OR_elsevier/44.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS127"/>
+  <dimension ref="A1:BU127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84919372138</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1143</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,6 +1168,12 @@
           <t>2-s2.0-84924733929</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1672</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1367,6 +1389,12 @@
           <t>2-s2.0-84912016685</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>761</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1590,6 +1618,12 @@
           <t>2-s2.0-84924937015</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>733</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1805,6 +1839,12 @@
           <t>2-s2.0-84924952399</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>528</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2024,6 +2064,12 @@
           <t>2-s2.0-84910613385</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1357</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2239,6 +2285,12 @@
           <t>2-s2.0-84922730419</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>573</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2458,6 +2510,12 @@
           <t>2-s2.0-84934974896</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>457</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2681,6 +2739,12 @@
           <t>2-s2.0-84921383976</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>715</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2888,6 +2952,12 @@
           <t>2-s2.0-84937540775</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>442</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3111,6 +3181,12 @@
           <t>2-s2.0-84928571408</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1324</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3326,6 +3402,12 @@
           <t>2-s2.0-84945291929</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>399</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3551,6 +3633,12 @@
           <t>2-s2.0-84934946144</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>181</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3770,6 +3858,12 @@
           <t>2-s2.0-84919916996</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1003</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3982,6 +4076,12 @@
         <is>
           <t>2-s2.0-84919934304</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>531</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -4190,6 +4290,12 @@
           <t>2-s2.0-84929613351</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1068</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4409,6 +4515,12 @@
           <t>2-s2.0-84941085353</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>638</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4632,6 +4744,12 @@
           <t>2-s2.0-84938833365</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>385</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4847,6 +4965,12 @@
           <t>2-s2.0-84924716413</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>539</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5058,6 +5182,12 @@
           <t>2-s2.0-84928502357</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>623</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5277,6 +5407,12 @@
           <t>2-s2.0-84936950444</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>353</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5496,6 +5632,12 @@
           <t>2-s2.0-84933524182</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>274</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5711,6 +5853,12 @@
           <t>2-s2.0-84925294730</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5934,6 +6082,12 @@
           <t>2-s2.0-84922851763</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>492</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6153,6 +6307,12 @@
           <t>2-s2.0-84911877324</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>2544</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6371,6 +6531,12 @@
         <is>
           <t>2-s2.0-84941564716</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>613</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -6579,6 +6745,12 @@
           <t>2-s2.0-84937030226</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>464</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6794,6 +6966,12 @@
           <t>2-s2.0-84929305281</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>718</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7009,6 +7187,12 @@
           <t>2-s2.0-84928386775</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>399</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7227,6 +7411,12 @@
         <is>
           <t>2-s2.0-84927132025</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>871</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -7435,6 +7625,12 @@
           <t>2-s2.0-84961289396</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>830</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7642,6 +7838,12 @@
           <t>2-s2.0-84961290078</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>306</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7857,6 +8059,12 @@
           <t>2-s2.0-84920188771</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>498</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8068,6 +8276,12 @@
           <t>2-s2.0-84955323432</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>661</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8279,6 +8493,12 @@
           <t>2-s2.0-84946561597</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>413</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8490,6 +8710,12 @@
           <t>2-s2.0-84943398234</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>290</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8709,6 +8935,12 @@
           <t>2-s2.0-84937438939</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>321</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8928,6 +9160,12 @@
           <t>2-s2.0-84939214674</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>237</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9150,6 +9388,12 @@
         <is>
           <t>2-s2.0-84937211449</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>619</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -9354,6 +9598,12 @@
           <t>2-s2.0-84983358928</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>453</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9579,6 +9829,12 @@
           <t>2-s2.0-84938348471</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>576</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9794,6 +10050,12 @@
           <t>2-s2.0-84941284243</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>401</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10012,6 +10274,12 @@
         <is>
           <t>2-s2.0-84929157653</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>277</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -10218,6 +10486,12 @@
           <t>2-s2.0-84934955425</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>463</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10429,6 +10703,12 @@
           <t>2-s2.0-84929158900</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1586</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10643,6 +10923,12 @@
         <is>
           <t>2-s2.0-84933049446</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>556</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -10855,6 +11141,12 @@
           <t>2-s2.0-84925817395</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>381</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11062,6 +11354,12 @@
           <t>2-s2.0-84920732034</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>435</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11285,6 +11583,12 @@
           <t>2-s2.0-84923227417</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>605</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11496,6 +11800,12 @@
           <t>2-s2.0-84920942715</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>624</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11707,6 +12017,12 @@
           <t>2-s2.0-84919884301</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>527</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11926,6 +12242,12 @@
           <t>2-s2.0-84914161849</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>649</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12145,6 +12467,12 @@
           <t>2-s2.0-84943555496</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>305</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12356,6 +12684,12 @@
           <t>2-s2.0-84939163535</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>852</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12581,6 +12915,12 @@
           <t>2-s2.0-84937045799</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>371</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12806,6 +13146,12 @@
           <t>2-s2.0-84941282473</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>871</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13017,6 +13363,12 @@
           <t>2-s2.0-84937205136</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>1216</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13236,6 +13588,12 @@
           <t>2-s2.0-84930202898</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>601</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13447,6 +13805,12 @@
           <t>2-s2.0-84935843698</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>610</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13663,6 +14027,12 @@
         <is>
           <t>2-s2.0-84930208970</t>
         </is>
+      </c>
+      <c r="BT61" t="n">
+        <v>471</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -13867,6 +14237,12 @@
           <t>2-s2.0-84925163860</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>1102</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14078,6 +14454,12 @@
           <t>2-s2.0-84928387250</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>248</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14297,6 +14679,12 @@
           <t>2-s2.0-84930637447</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>699</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14519,6 +14907,12 @@
         <is>
           <t>2-s2.0-84924238765</t>
         </is>
+      </c>
+      <c r="BT65" t="n">
+        <v>1092</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -14731,6 +15125,12 @@
           <t>2-s2.0-84923579376</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>312</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14942,6 +15342,12 @@
           <t>2-s2.0-84922353915</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>934</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15159,6 +15565,12 @@
           <t>2-s2.0-84922180623</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>558</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15382,6 +15794,12 @@
           <t>2-s2.0-84921345561</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>653</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15593,6 +16011,12 @@
           <t>2-s2.0-84921715461</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>413</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15811,6 +16235,12 @@
         <is>
           <t>2-s2.0-84921977670</t>
         </is>
+      </c>
+      <c r="BT71" t="n">
+        <v>486</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -16019,6 +16449,12 @@
           <t>2-s2.0-84921760729</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>554</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16222,6 +16658,12 @@
           <t>2-s2.0-84920126724</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>563</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16444,6 +16886,12 @@
         <is>
           <t>2-s2.0-84912003266</t>
         </is>
+      </c>
+      <c r="BT74" t="n">
+        <v>455</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -16652,6 +17100,12 @@
           <t>2-s2.0-84943383460</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>350</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16859,6 +17313,12 @@
           <t>2-s2.0-84945299561</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>342</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17074,6 +17534,12 @@
           <t>2-s2.0-84941552770</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>371</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17281,6 +17747,12 @@
           <t>2-s2.0-84955265682</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>444</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17491,6 +17963,12 @@
         <is>
           <t>2-s2.0-84946142138</t>
         </is>
+      </c>
+      <c r="BT79" t="n">
+        <v>362</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -17695,6 +18173,12 @@
           <t>2-s2.0-84940920319</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>523</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17902,6 +18386,12 @@
           <t>2-s2.0-84940669284</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>376</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18125,6 +18615,12 @@
           <t>2-s2.0-84938357571</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>306</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18340,6 +18836,12 @@
           <t>2-s2.0-84983179914</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>273</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18551,6 +19053,12 @@
           <t>2-s2.0-84938309015</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>386</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18770,6 +19278,12 @@
           <t>2-s2.0-84930642045</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>375</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18993,6 +19507,12 @@
           <t>2-s2.0-84930933881</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>506</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19208,6 +19728,12 @@
           <t>2-s2.0-84930939431</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>695</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19431,6 +19957,12 @@
           <t>2-s2.0-84930619025</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>604</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19654,6 +20186,12 @@
           <t>2-s2.0-84930210910</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>277</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19869,6 +20407,12 @@
           <t>2-s2.0-84929323103</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>601</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20084,6 +20628,12 @@
           <t>2-s2.0-84924814301</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>445</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20299,6 +20849,12 @@
           <t>2-s2.0-84924241768</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>584</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20522,6 +21078,12 @@
           <t>2-s2.0-84929076110</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>446</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20733,6 +21295,12 @@
           <t>2-s2.0-84924767138</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>410</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20951,6 +21519,12 @@
         <is>
           <t>2-s2.0-84927133425</t>
         </is>
+      </c>
+      <c r="BT95" t="n">
+        <v>303</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -21159,6 +21733,12 @@
           <t>2-s2.0-84927936253</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>239</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21374,6 +21954,12 @@
           <t>2-s2.0-84926656130</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>591</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21588,6 +22174,12 @@
         <is>
           <t>2-s2.0-84923636531</t>
         </is>
+      </c>
+      <c r="BT98" t="n">
+        <v>469</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -21796,6 +22388,12 @@
           <t>2-s2.0-84923264039</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>374</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22007,6 +22605,12 @@
           <t>2-s2.0-84919935103</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>279</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22222,6 +22826,12 @@
           <t>2-s2.0-84920132791</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>369</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22433,6 +23043,12 @@
           <t>2-s2.0-84911936988</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>498</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22652,6 +23268,12 @@
           <t>2-s2.0-84917706477</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>704</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22867,6 +23489,12 @@
           <t>2-s2.0-84920173467</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>429</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23078,6 +23706,12 @@
           <t>2-s2.0-84920720587</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>530</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23294,6 +23928,12 @@
         <is>
           <t>2-s2.0-84945589401</t>
         </is>
+      </c>
+      <c r="BT106" t="n">
+        <v>336</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -23498,6 +24138,12 @@
           <t>2-s2.0-84940988825</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>477</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23717,6 +24363,12 @@
           <t>2-s2.0-84944403625</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>870</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23931,6 +24583,12 @@
         <is>
           <t>2-s2.0-84942117387</t>
         </is>
+      </c>
+      <c r="BT109" t="n">
+        <v>349</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -24139,6 +24797,12 @@
           <t>2-s2.0-84941894895</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>293</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24353,6 +25017,12 @@
         <is>
           <t>2-s2.0-84941118732</t>
         </is>
+      </c>
+      <c r="BT111" t="n">
+        <v>430</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -24561,6 +25231,12 @@
           <t>2-s2.0-84940539436</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>427</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24776,6 +25452,12 @@
           <t>2-s2.0-84938248542</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>872</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24999,6 +25681,12 @@
           <t>2-s2.0-84930643008</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>365</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25217,6 +25905,12 @@
         <is>
           <t>2-s2.0-84935018432</t>
         </is>
+      </c>
+      <c r="BT115" t="n">
+        <v>254</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -25413,6 +26107,12 @@
           <t>2-s2.0-84930941549</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>516</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25636,6 +26336,12 @@
           <t>2-s2.0-84953875814</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>454</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25847,6 +26553,12 @@
           <t>2-s2.0-84930614705</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>239</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26066,6 +26778,12 @@
           <t>2-s2.0-84925753993</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>632</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26276,6 +26994,12 @@
         <is>
           <t>2-s2.0-84929093253</t>
         </is>
+      </c>
+      <c r="BT120" t="n">
+        <v>228</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -26484,6 +27208,12 @@
           <t>2-s2.0-85028233471</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>556</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26691,6 +27421,12 @@
           <t>2-s2.0-84919327028</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>444</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26905,6 +27641,12 @@
         <is>
           <t>2-s2.0-84920109962</t>
         </is>
+      </c>
+      <c r="BT123" t="n">
+        <v>384</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -27109,6 +27851,12 @@
           <t>2-s2.0-84919348699</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>851</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27320,6 +28068,12 @@
           <t>2-s2.0-84912002066</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>523</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27534,6 +28288,12 @@
         <is>
           <t>2-s2.0-84911885027</t>
         </is>
+      </c>
+      <c r="BT126" t="n">
+        <v>660</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -27738,6 +28498,12 @@
           <t>2-s2.0-84920179849</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>790</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
